--- a/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}encounter-status:El recurso Encounter debe venir con un estado 'arrived' para la admisión de urgencia {entry.resource.ofType(Encounter).status = 'arrived'}request-1:Si el entry exige un ifNoneExist en el request, entonces este debe comenzar con 'identifier=' {entry.all(request.ifNoneExist.exists() implies request.ifNoneExist.startsWith('identifier='))}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}encounter-status-admision:El recurso Encounter debe venir con un estado 'arrived' para la admisión de urgencia {entry.resource.ofType(Encounter).status = 'arrived'}request-ifNoneExist:Si el entry exige un ifNoneExist en el request, entonces este debe comenzar con 'identifier=' {entry.all(request.ifNoneExist.exists() implies request.ifNoneExist.startsWith('identifier='))}status-history-admision:El Encounter debe incluir statusHistory de Admisión con status arrived {entry.where(resource is Encounter).resource.statusHistory.where(status = 'arrived').exists()}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1250,31 +1250,31 @@
     <t>Bundle.entry:establecimiento.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalAdministrativo</t>
-  </si>
-  <si>
-    <t>profesionalAdministrativo</t>
-  </si>
-  <si>
-    <t>Profesional Administrativo</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.resource</t>
+    <t>Bundle.entry:admisionista</t>
+  </si>
+  <si>
+    <t>admisionista</t>
+  </si>
+  <si>
+    <t>Profesional que realiza la admisión</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.resource</t>
   </si>
   <si>
     <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/urgencia/StructureDefinition/PrestadorAdministrativo}
@@ -1293,55 +1293,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalAdministrativo.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.url</t>
+    <t>Bundle.entry:admisionista.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.url</t>
   </si>
   <si>
     <t>Practitioner</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.request.ifNoneExist</t>
+    <t>Bundle.entry:admisionista.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.request.ifNoneExist</t>
   </si>
   <si>
     <t>Verificar existencia de profesional</t>
@@ -1350,31 +1350,31 @@
     <t>Se debe verificar que no exista un profesional con el mismo identificador</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalAdministrativo.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalAdministrativo.response.outcome</t>
+    <t>Bundle.entry:admisionista.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:admisionista.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:acompanante</t>
@@ -1856,9 +1856,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.0859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>

--- a/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-BundleAdmision.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
